--- a/Documents/Deliverable drafts_&_templates/Deliverable 4/SixGuys_Deliverable_3_SprintBackLog_6.xlsx
+++ b/Documents/Deliverable drafts_&_templates/Deliverable 4/SixGuys_Deliverable_3_SprintBackLog_6.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\David\Desktop\Project-Burger\Documents\Deliverable drafts_&amp;_templates\Deliverable 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E517E741-7539-4AA2-BE63-83AAD7B1E6ED}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFAAEE2F-F23B-49F6-9854-33DDB4264CB2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="420" windowWidth="27450" windowHeight="15180" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,10 +282,10 @@
     <t>As a player I want to be able to adjust my volume so that it is the most comfortable level for me to play with.</t>
   </si>
   <si>
-    <t>David Sincyr(99%)</t>
-  </si>
-  <si>
     <t>David Sincyr(50%)</t>
+  </si>
+  <si>
+    <t>David Sincyr(100%)</t>
   </si>
 </sst>
 </file>
@@ -380,7 +380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -496,6 +496,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -503,7 +516,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -566,6 +579,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="9" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Excel Built-in 20% - Accent4" xfId="3" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
@@ -1816,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AMJ53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1882,19 +1901,19 @@
       <c r="A3" s="18">
         <v>3</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="30">
         <v>6</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="30">
         <v>5</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="30">
         <v>3</v>
       </c>
       <c r="G3" s="28" t="s">
@@ -1910,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D4" s="23" t="s">
         <v>72</v>
@@ -1928,13 +1947,13 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="18">
         <v>6</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D5" s="19" t="s">
         <v>72</v>
